--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.33693233333333</v>
+        <v>27.09457833333333</v>
       </c>
       <c r="H2">
-        <v>181.010797</v>
+        <v>81.28373500000001</v>
       </c>
       <c r="I2">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921379</v>
       </c>
       <c r="J2">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.45037966666666</v>
+        <v>105.0653766666667</v>
       </c>
       <c r="N2">
-        <v>169.351139</v>
+        <v>315.19613</v>
       </c>
       <c r="O2">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="P2">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="Q2">
-        <v>3406.042738138642</v>
+        <v>2846.702078216172</v>
       </c>
       <c r="R2">
-        <v>30654.38464324778</v>
+        <v>25620.31870394555</v>
       </c>
       <c r="S2">
-        <v>0.9546078405547476</v>
+        <v>0.9540371657657294</v>
       </c>
       <c r="T2">
-        <v>0.9546078405547476</v>
+        <v>0.9540371657657296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.33693233333333</v>
+        <v>27.09457833333333</v>
       </c>
       <c r="H3">
-        <v>181.010797</v>
+        <v>81.28373500000001</v>
       </c>
       <c r="I3">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921379</v>
       </c>
       <c r="J3">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.691729</v>
       </c>
       <c r="O3">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="P3">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="Q3">
-        <v>74.24920095533479</v>
+        <v>33.34194685864611</v>
       </c>
       <c r="R3">
-        <v>668.2428085980131</v>
+        <v>300.0775217278151</v>
       </c>
       <c r="S3">
-        <v>0.02080974163748222</v>
+        <v>0.01117414313410241</v>
       </c>
       <c r="T3">
-        <v>0.02080974163748222</v>
+        <v>0.01117414313410241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.33693233333333</v>
+        <v>27.09457833333333</v>
       </c>
       <c r="H4">
-        <v>181.010797</v>
+        <v>81.28373500000001</v>
       </c>
       <c r="I4">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921379</v>
       </c>
       <c r="J4">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5540203333333333</v>
+        <v>0.3093633333333333</v>
       </c>
       <c r="N4">
-        <v>1.662061</v>
+        <v>0.92809</v>
       </c>
       <c r="O4">
-        <v>0.009473879813253996</v>
+        <v>0.002891186687979499</v>
       </c>
       <c r="P4">
-        <v>0.009473879813253996</v>
+        <v>0.0028911866879795</v>
       </c>
       <c r="Q4">
-        <v>33.42788736362411</v>
+        <v>8.382069068461112</v>
       </c>
       <c r="R4">
-        <v>300.850986272617</v>
+        <v>75.43862161615</v>
       </c>
       <c r="S4">
-        <v>0.009368797112609113</v>
+        <v>0.002809147286089825</v>
       </c>
       <c r="T4">
-        <v>0.009368797112609113</v>
+        <v>0.002809147286089826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.33693233333333</v>
+        <v>27.09457833333333</v>
       </c>
       <c r="H5">
-        <v>181.010797</v>
+        <v>81.28373500000001</v>
       </c>
       <c r="I5">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921379</v>
       </c>
       <c r="J5">
-        <v>0.9889081661667406</v>
+        <v>0.9716243152921381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2437403333333333</v>
+        <v>0.3968826666666667</v>
       </c>
       <c r="N5">
-        <v>0.731221</v>
+        <v>1.190648</v>
       </c>
       <c r="O5">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="P5">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="Q5">
-        <v>14.70654399923744</v>
+        <v>10.75336850114222</v>
       </c>
       <c r="R5">
-        <v>132.358895993137</v>
+        <v>96.78031651028</v>
       </c>
       <c r="S5">
-        <v>0.004121786861901668</v>
+        <v>0.003603859106216291</v>
       </c>
       <c r="T5">
-        <v>0.004121786861901668</v>
+        <v>0.003603859106216292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.248201</v>
       </c>
       <c r="I6">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923828</v>
       </c>
       <c r="J6">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.45037966666666</v>
+        <v>105.0653766666667</v>
       </c>
       <c r="N6">
-        <v>169.351139</v>
+        <v>315.19613</v>
       </c>
       <c r="O6">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="P6">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="Q6">
-        <v>23.48714011677099</v>
+        <v>43.71423607357</v>
       </c>
       <c r="R6">
-        <v>211.384261050939</v>
+        <v>393.42812466213</v>
       </c>
       <c r="S6">
-        <v>0.006582714848707486</v>
+        <v>0.01465028820767094</v>
       </c>
       <c r="T6">
-        <v>0.006582714848707486</v>
+        <v>0.01465028820767094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.248201</v>
       </c>
       <c r="I7">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923828</v>
       </c>
       <c r="J7">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.691729</v>
       </c>
       <c r="O7">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="P7">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="Q7">
         <v>0.512002203281</v>
       </c>
       <c r="R7">
-        <v>4.608019829529</v>
+        <v>4.608019829529001</v>
       </c>
       <c r="S7">
-        <v>0.0001434982926551444</v>
+        <v>0.0001715912369692382</v>
       </c>
       <c r="T7">
-        <v>0.0001434982926551444</v>
+        <v>0.0001715912369692382</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.248201</v>
       </c>
       <c r="I8">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923828</v>
       </c>
       <c r="J8">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5540203333333333</v>
+        <v>0.3093633333333333</v>
       </c>
       <c r="N8">
-        <v>1.662061</v>
+        <v>0.92809</v>
       </c>
       <c r="O8">
-        <v>0.009473879813253996</v>
+        <v>0.002891186687979499</v>
       </c>
       <c r="P8">
-        <v>0.009473879813253996</v>
+        <v>0.0028911866879795</v>
       </c>
       <c r="Q8">
-        <v>0.230509578029</v>
+        <v>0.12871587401</v>
       </c>
       <c r="R8">
-        <v>2.074586202261</v>
+        <v>1.15844286609</v>
       </c>
       <c r="S8">
-        <v>6.460466512810176E-05</v>
+        <v>4.31375410055235E-05</v>
       </c>
       <c r="T8">
-        <v>6.460466512810176E-05</v>
+        <v>4.313754100552351E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.248201</v>
       </c>
       <c r="I9">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923828</v>
       </c>
       <c r="J9">
-        <v>0.006819240522528011</v>
+        <v>0.01492035819923829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2437403333333333</v>
+        <v>0.3968826666666667</v>
       </c>
       <c r="N9">
-        <v>0.731221</v>
+        <v>1.190648</v>
       </c>
       <c r="O9">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="P9">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="Q9">
-        <v>0.101412309269</v>
+        <v>0.165129780472</v>
       </c>
       <c r="R9">
-        <v>0.912710783421</v>
+        <v>1.486168024248</v>
       </c>
       <c r="S9">
-        <v>2.842271603727883E-05</v>
+        <v>5.534121359258752E-05</v>
       </c>
       <c r="T9">
-        <v>2.842271603727883E-05</v>
+        <v>5.534121359258752E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2606866666666667</v>
+        <v>0.3752133333333333</v>
       </c>
       <c r="H10">
-        <v>0.7820600000000001</v>
+        <v>1.12564</v>
       </c>
       <c r="I10">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="J10">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.45037966666666</v>
+        <v>105.0653766666667</v>
       </c>
       <c r="N10">
-        <v>169.351139</v>
+        <v>315.19613</v>
       </c>
       <c r="O10">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="P10">
-        <v>0.9653149536170281</v>
+        <v>0.9818992286940446</v>
       </c>
       <c r="Q10">
-        <v>14.71586130737111</v>
+        <v>39.42193019702222</v>
       </c>
       <c r="R10">
-        <v>132.44275176634</v>
+        <v>354.7973717732</v>
       </c>
       <c r="S10">
-        <v>0.004124398213573115</v>
+        <v>0.01321177472064412</v>
       </c>
       <c r="T10">
-        <v>0.004124398213573115</v>
+        <v>0.01321177472064412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2606866666666667</v>
+        <v>0.3752133333333333</v>
       </c>
       <c r="H11">
-        <v>0.7820600000000001</v>
+        <v>1.12564</v>
       </c>
       <c r="I11">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="J11">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.691729</v>
       </c>
       <c r="O11">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="P11">
-        <v>0.02104314874670928</v>
+        <v>0.0115004770447132</v>
       </c>
       <c r="Q11">
-        <v>0.3207948424155556</v>
+        <v>0.4617286479511111</v>
       </c>
       <c r="R11">
-        <v>2.887153581740001</v>
+        <v>4.15555783156</v>
       </c>
       <c r="S11">
-        <v>8.99088165719161E-05</v>
+        <v>0.0001547426736415475</v>
       </c>
       <c r="T11">
-        <v>8.99088165719161E-05</v>
+        <v>0.0001547426736415475</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2606866666666667</v>
+        <v>0.3752133333333333</v>
       </c>
       <c r="H12">
-        <v>0.7820600000000001</v>
+        <v>1.12564</v>
       </c>
       <c r="I12">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="J12">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5540203333333333</v>
+        <v>0.3093633333333333</v>
       </c>
       <c r="N12">
-        <v>1.662061</v>
+        <v>0.92809</v>
       </c>
       <c r="O12">
-        <v>0.009473879813253996</v>
+        <v>0.002891186687979499</v>
       </c>
       <c r="P12">
-        <v>0.009473879813253996</v>
+        <v>0.0028911866879795</v>
       </c>
       <c r="Q12">
-        <v>0.1444257139622222</v>
+        <v>0.1160772475111111</v>
       </c>
       <c r="R12">
-        <v>1.29983142566</v>
+        <v>1.0446952276</v>
       </c>
       <c r="S12">
-        <v>4.047803551678237E-05</v>
+        <v>3.890186088415044E-05</v>
       </c>
       <c r="T12">
-        <v>4.047803551678237E-05</v>
+        <v>3.890186088415045E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2606866666666667</v>
+        <v>0.3752133333333333</v>
       </c>
       <c r="H13">
-        <v>0.7820600000000001</v>
+        <v>1.12564</v>
       </c>
       <c r="I13">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="J13">
-        <v>0.00427259331073141</v>
+        <v>0.01345532650862368</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2437403333333333</v>
+        <v>0.3968826666666667</v>
       </c>
       <c r="N13">
-        <v>0.731221</v>
+        <v>1.190648</v>
       </c>
       <c r="O13">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="P13">
-        <v>0.004168017823008542</v>
+        <v>0.003709107573262739</v>
       </c>
       <c r="Q13">
-        <v>0.0635398550288889</v>
+        <v>0.1489156683022222</v>
       </c>
       <c r="R13">
-        <v>0.5718586952600001</v>
+        <v>1.34024101472</v>
       </c>
       <c r="S13">
-        <v>1.780824506959559E-05</v>
+        <v>4.990725345385896E-05</v>
       </c>
       <c r="T13">
-        <v>1.780824506959559E-05</v>
+        <v>4.990725345385896E-05</v>
       </c>
     </row>
   </sheetData>
